--- a/data/pca/factorExposure/factorExposure_2016-02-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01536458403797996</v>
+        <v>0.01722794896784914</v>
       </c>
       <c r="C2">
-        <v>0.05830478531963753</v>
+        <v>0.04252784145809123</v>
       </c>
       <c r="D2">
-        <v>-0.04875552237829936</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.08675671206908639</v>
+      </c>
+      <c r="E2">
+        <v>0.1117931912231399</v>
+      </c>
+      <c r="F2">
+        <v>-0.03818179322701973</v>
+      </c>
+      <c r="G2">
+        <v>-0.005489636347332083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03839847882199433</v>
+        <v>0.02369791774266682</v>
       </c>
       <c r="C3">
-        <v>0.1244765885951987</v>
+        <v>0.06656028773194192</v>
       </c>
       <c r="D3">
-        <v>-0.05714503564402289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07556715440382278</v>
+      </c>
+      <c r="E3">
+        <v>0.08867265430096899</v>
+      </c>
+      <c r="F3">
+        <v>0.05042056251904574</v>
+      </c>
+      <c r="G3">
+        <v>-0.08874612392533876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06243414145854811</v>
+        <v>0.06218325766812492</v>
       </c>
       <c r="C4">
-        <v>0.0617343052613369</v>
+        <v>0.06300542196529592</v>
       </c>
       <c r="D4">
-        <v>-0.04041112585825814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08104024822190427</v>
+      </c>
+      <c r="E4">
+        <v>0.1058247107670484</v>
+      </c>
+      <c r="F4">
+        <v>0.027813887735326</v>
+      </c>
+      <c r="G4">
+        <v>0.0459786073757293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.043262313650537</v>
+        <v>0.04066231915693336</v>
       </c>
       <c r="C6">
-        <v>0.03867903705145392</v>
+        <v>0.0285934850380247</v>
       </c>
       <c r="D6">
-        <v>-0.03721732183177697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.08307182747787771</v>
+      </c>
+      <c r="E6">
+        <v>0.09660327800744471</v>
+      </c>
+      <c r="F6">
+        <v>0.02481744988448566</v>
+      </c>
+      <c r="G6">
+        <v>-0.0007147682336612667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.03165343424913458</v>
+        <v>0.02386595737287315</v>
       </c>
       <c r="C7">
-        <v>0.03378264397504045</v>
+        <v>0.03430406938737928</v>
       </c>
       <c r="D7">
-        <v>-0.01855455806980706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.06510758530912666</v>
+      </c>
+      <c r="E7">
+        <v>0.08522245497818033</v>
+      </c>
+      <c r="F7">
+        <v>0.002462620395177</v>
+      </c>
+      <c r="G7">
+        <v>0.07862084698595938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0110441597088906</v>
+        <v>0.008818582390003032</v>
       </c>
       <c r="C8">
-        <v>0.04484404898321833</v>
+        <v>0.03701401265491767</v>
       </c>
       <c r="D8">
-        <v>-0.03411670592599665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.05355006085548333</v>
+      </c>
+      <c r="E8">
+        <v>0.06845964733898692</v>
+      </c>
+      <c r="F8">
+        <v>0.01518964628653166</v>
+      </c>
+      <c r="G8">
+        <v>-0.008524214053837315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04183131041010502</v>
+        <v>0.04441565244684637</v>
       </c>
       <c r="C9">
-        <v>0.04393155401695847</v>
+        <v>0.04960934659660252</v>
       </c>
       <c r="D9">
-        <v>-0.03510457494380186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06906978878758203</v>
+      </c>
+      <c r="E9">
+        <v>0.08720936286380329</v>
+      </c>
+      <c r="F9">
+        <v>0.006940508588069171</v>
+      </c>
+      <c r="G9">
+        <v>0.04545511753214854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07765843206623654</v>
+        <v>0.1036033127918547</v>
       </c>
       <c r="C10">
-        <v>-0.186490832280744</v>
+        <v>-0.2001769930053012</v>
       </c>
       <c r="D10">
-        <v>-0.009541748153522841</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004097308119368257</v>
+      </c>
+      <c r="E10">
+        <v>0.03959601262980533</v>
+      </c>
+      <c r="F10">
+        <v>-0.002159038345017599</v>
+      </c>
+      <c r="G10">
+        <v>0.0302756900006326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04548135754021422</v>
+        <v>0.0388584203636838</v>
       </c>
       <c r="C11">
-        <v>0.05055116917429395</v>
+        <v>0.04758545438981579</v>
       </c>
       <c r="D11">
-        <v>-0.02860687471088717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04594925489999717</v>
+      </c>
+      <c r="E11">
+        <v>0.03797115146945244</v>
+      </c>
+      <c r="F11">
+        <v>0.008570902656562874</v>
+      </c>
+      <c r="G11">
+        <v>0.05142437555724205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04846328702843186</v>
+        <v>0.04097983827391317</v>
       </c>
       <c r="C12">
-        <v>0.04553036955830311</v>
+        <v>0.04553999862008028</v>
       </c>
       <c r="D12">
-        <v>-0.009266151673694321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.03968395498263511</v>
+      </c>
+      <c r="E12">
+        <v>0.0497640717525137</v>
+      </c>
+      <c r="F12">
+        <v>0.003685492341530883</v>
+      </c>
+      <c r="G12">
+        <v>0.04554171664971812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01775831543674344</v>
+        <v>0.01657207094520394</v>
       </c>
       <c r="C13">
-        <v>0.05306491164145979</v>
+        <v>0.04237718906038247</v>
       </c>
       <c r="D13">
-        <v>-0.01929367633218085</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.07531150679849036</v>
+      </c>
+      <c r="E13">
+        <v>0.1313684815101351</v>
+      </c>
+      <c r="F13">
+        <v>0.01400591029342731</v>
+      </c>
+      <c r="G13">
+        <v>0.05372361750931558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01663260884705998</v>
+        <v>0.009372312777260109</v>
       </c>
       <c r="C14">
-        <v>0.03098840386117861</v>
+        <v>0.02931857156606916</v>
       </c>
       <c r="D14">
-        <v>-0.01211150243643164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.05033352001062081</v>
+      </c>
+      <c r="E14">
+        <v>0.08073353358560462</v>
+      </c>
+      <c r="F14">
+        <v>-0.01460465530794187</v>
+      </c>
+      <c r="G14">
+        <v>0.04488630535419378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0005823924434814956</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006354917398630588</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01252067699646371</v>
+      </c>
+      <c r="E15">
+        <v>0.01228164185384837</v>
+      </c>
+      <c r="F15">
+        <v>-0.0001156118825690773</v>
+      </c>
+      <c r="G15">
+        <v>0.0003395385850961456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04453879506503007</v>
+        <v>0.03796249956425531</v>
       </c>
       <c r="C16">
-        <v>0.04782151078293554</v>
+        <v>0.04514253342780981</v>
       </c>
       <c r="D16">
-        <v>-0.01663594777519735</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.04143562896915</v>
+      </c>
+      <c r="E16">
+        <v>0.05228336517823677</v>
+      </c>
+      <c r="F16">
+        <v>-0.007200231359647319</v>
+      </c>
+      <c r="G16">
+        <v>0.03979678087468169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02574537104541705</v>
+        <v>0.01844848259868381</v>
       </c>
       <c r="C19">
-        <v>0.05899449225400817</v>
+        <v>0.04349605369353043</v>
       </c>
       <c r="D19">
-        <v>-0.07915540571992037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1034874721232198</v>
+      </c>
+      <c r="E19">
+        <v>0.1231481426430742</v>
+      </c>
+      <c r="F19">
+        <v>-0.01679641207005423</v>
+      </c>
+      <c r="G19">
+        <v>0.004282286048847113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02337316923001875</v>
+        <v>0.01820948564030325</v>
       </c>
       <c r="C20">
-        <v>0.04716447727991273</v>
+        <v>0.04019187227616947</v>
       </c>
       <c r="D20">
-        <v>-0.01914248441655516</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.05702725647359033</v>
+      </c>
+      <c r="E20">
+        <v>0.09818942527521299</v>
+      </c>
+      <c r="F20">
+        <v>-0.001786405102765805</v>
+      </c>
+      <c r="G20">
+        <v>0.02920532068259394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02191157589858304</v>
+        <v>0.01700947452542407</v>
       </c>
       <c r="C21">
-        <v>0.05638959710423962</v>
+        <v>0.04597001910259881</v>
       </c>
       <c r="D21">
-        <v>-0.03597029932743424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.08442462340164679</v>
+      </c>
+      <c r="E21">
+        <v>0.1514188516530089</v>
+      </c>
+      <c r="F21">
+        <v>-0.02235701858543284</v>
+      </c>
+      <c r="G21">
+        <v>0.06879112581053723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0005768825361950784</v>
+        <v>0.005451123390403509</v>
       </c>
       <c r="C22">
-        <v>0.01325869124337153</v>
+        <v>0.02965673311609</v>
       </c>
       <c r="D22">
-        <v>-0.02541217572677672</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.06989014241050232</v>
+      </c>
+      <c r="E22">
+        <v>0.07539393089746239</v>
+      </c>
+      <c r="F22">
+        <v>0.06384319795093585</v>
+      </c>
+      <c r="G22">
+        <v>-0.03213793893451699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0005831644153596081</v>
+        <v>0.005572243307834152</v>
       </c>
       <c r="C23">
-        <v>0.01326206054857593</v>
+        <v>0.02971784633023527</v>
       </c>
       <c r="D23">
-        <v>-0.02536108125711344</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.06920572577134999</v>
+      </c>
+      <c r="E23">
+        <v>0.07560198283807296</v>
+      </c>
+      <c r="F23">
+        <v>0.06379466121281951</v>
+      </c>
+      <c r="G23">
+        <v>-0.03154307410485901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.04097392609830219</v>
+        <v>0.03874688581340924</v>
       </c>
       <c r="C24">
-        <v>0.04874206112602148</v>
+        <v>0.052581260150957</v>
       </c>
       <c r="D24">
-        <v>-0.02225169406828986</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.04402027051057898</v>
+      </c>
+      <c r="E24">
+        <v>0.05734726116401948</v>
+      </c>
+      <c r="F24">
+        <v>-0.004186923594156386</v>
+      </c>
+      <c r="G24">
+        <v>0.05544855144359935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.05160376347118024</v>
+        <v>0.04548328758976965</v>
       </c>
       <c r="C25">
-        <v>0.05369433383727198</v>
+        <v>0.05315565629590195</v>
       </c>
       <c r="D25">
-        <v>-0.01492265164173734</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03970019585286004</v>
+      </c>
+      <c r="E25">
+        <v>0.05025061777464112</v>
+      </c>
+      <c r="F25">
+        <v>0.01096917385129529</v>
+      </c>
+      <c r="G25">
+        <v>0.05969975296915038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02315515649033273</v>
+        <v>0.01967063695448746</v>
       </c>
       <c r="C26">
-        <v>0.01319020513611755</v>
+        <v>0.01614428171224196</v>
       </c>
       <c r="D26">
-        <v>-0.02049811815805391</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0444413874724516</v>
+      </c>
+      <c r="E26">
+        <v>0.06412126842794137</v>
+      </c>
+      <c r="F26">
+        <v>-0.01613159412668163</v>
+      </c>
+      <c r="G26">
+        <v>0.02236410898124842</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09683470546199757</v>
+        <v>0.1419033553306602</v>
       </c>
       <c r="C28">
-        <v>-0.2592980100596654</v>
+        <v>-0.2595560953740517</v>
       </c>
       <c r="D28">
-        <v>0.003062308615936311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01921140985564029</v>
+      </c>
+      <c r="E28">
+        <v>0.06409842363594988</v>
+      </c>
+      <c r="F28">
+        <v>-0.002839610813562318</v>
+      </c>
+      <c r="G28">
+        <v>0.06623416323149085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01210802875585047</v>
+        <v>0.008780416393318283</v>
       </c>
       <c r="C29">
-        <v>0.02817354820496846</v>
+        <v>0.02719276330369596</v>
       </c>
       <c r="D29">
-        <v>-0.003955121409519667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.04190341214949575</v>
+      </c>
+      <c r="E29">
+        <v>0.0792835011910563</v>
+      </c>
+      <c r="F29">
+        <v>-0.004868644602559089</v>
+      </c>
+      <c r="G29">
+        <v>0.05333541696705945</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.045128247814597</v>
+        <v>0.04533435787278156</v>
       </c>
       <c r="C30">
-        <v>0.04990732787579313</v>
+        <v>0.05644857147994036</v>
       </c>
       <c r="D30">
-        <v>-0.09595533052713864</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1308932550336732</v>
+      </c>
+      <c r="E30">
+        <v>0.1004350603343758</v>
+      </c>
+      <c r="F30">
+        <v>0.002235394477091447</v>
+      </c>
+      <c r="G30">
+        <v>-0.003205143476062313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06849242139818608</v>
+        <v>0.0643784482377356</v>
       </c>
       <c r="C31">
-        <v>0.04707011298268119</v>
+        <v>0.06164067554366339</v>
       </c>
       <c r="D31">
-        <v>0.02540893278762264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.007934427991514868</v>
+      </c>
+      <c r="E31">
+        <v>0.08252133881456834</v>
+      </c>
+      <c r="F31">
+        <v>0.03018981303610963</v>
+      </c>
+      <c r="G31">
+        <v>0.03371429190018738</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00104322383457292</v>
+        <v>0.006278328615214298</v>
       </c>
       <c r="C32">
-        <v>0.03213381933331676</v>
+        <v>0.03056460067781216</v>
       </c>
       <c r="D32">
-        <v>-0.04677141715463676</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0636230163760706</v>
+      </c>
+      <c r="E32">
+        <v>0.1058165696390531</v>
+      </c>
+      <c r="F32">
+        <v>-0.03273877549216074</v>
+      </c>
+      <c r="G32">
+        <v>0.08275008514907456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03913824411700243</v>
+        <v>0.03168725344410251</v>
       </c>
       <c r="C33">
-        <v>0.05566007209166788</v>
+        <v>0.05093648387140668</v>
       </c>
       <c r="D33">
-        <v>-0.05922820123667889</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09810012230246047</v>
+      </c>
+      <c r="E33">
+        <v>0.1052233486595273</v>
+      </c>
+      <c r="F33">
+        <v>0.01418768065305607</v>
+      </c>
+      <c r="G33">
+        <v>0.04524232355655475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04540239570023071</v>
+        <v>0.04051741936980744</v>
       </c>
       <c r="C34">
-        <v>0.06336252766134522</v>
+        <v>0.06219119502815351</v>
       </c>
       <c r="D34">
-        <v>-0.03392856472427679</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0485624616810282</v>
+      </c>
+      <c r="E34">
+        <v>0.03837673483025612</v>
+      </c>
+      <c r="F34">
+        <v>-0.001669964518998218</v>
+      </c>
+      <c r="G34">
+        <v>0.06375809987774922</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1.994405305277382e-05</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0004028236935334727</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0003519246587341933</v>
+      </c>
+      <c r="E35">
+        <v>-0.0004569703361441352</v>
+      </c>
+      <c r="F35">
+        <v>-3.418941938727255e-05</v>
+      </c>
+      <c r="G35">
+        <v>0.000100010770524288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02318098798107874</v>
+        <v>0.01895495222143143</v>
       </c>
       <c r="C36">
-        <v>0.01467285511952164</v>
+        <v>0.01357346217841185</v>
       </c>
       <c r="D36">
-        <v>-0.01293057966333096</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04516512458658924</v>
+      </c>
+      <c r="E36">
+        <v>0.07519451074270093</v>
+      </c>
+      <c r="F36">
+        <v>-0.0006872036569573703</v>
+      </c>
+      <c r="G36">
+        <v>0.04057907954745726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03352594003958</v>
+        <v>0.02537931218907985</v>
       </c>
       <c r="C38">
-        <v>0.03091080624444363</v>
+        <v>0.02498965942775079</v>
       </c>
       <c r="D38">
-        <v>0.005583093237146053</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.03732877562087518</v>
+      </c>
+      <c r="E38">
+        <v>0.06501495071227828</v>
+      </c>
+      <c r="F38">
+        <v>0.0004209268882185881</v>
+      </c>
+      <c r="G38">
+        <v>-0.002890280356627646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.05333333350365041</v>
+        <v>0.04575477862296983</v>
       </c>
       <c r="C39">
-        <v>0.05884822666731839</v>
+        <v>0.06149957329328356</v>
       </c>
       <c r="D39">
-        <v>-0.04068907584514265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.07491005778803822</v>
+      </c>
+      <c r="E39">
+        <v>0.06357479026634281</v>
+      </c>
+      <c r="F39">
+        <v>-0.02061917741923029</v>
+      </c>
+      <c r="G39">
+        <v>0.03979854240094511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01589469201574661</v>
+        <v>0.01724273230240714</v>
       </c>
       <c r="C40">
-        <v>0.05697777043512974</v>
+        <v>0.04134900776788029</v>
       </c>
       <c r="D40">
-        <v>-0.0119827876846059</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.05094006654329549</v>
+      </c>
+      <c r="E40">
+        <v>0.1156117953106462</v>
+      </c>
+      <c r="F40">
+        <v>0.02434105073310947</v>
+      </c>
+      <c r="G40">
+        <v>0.03785544079048423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02704940430937119</v>
+        <v>0.02199139644722808</v>
       </c>
       <c r="C41">
-        <v>0.0107673596275451</v>
+        <v>0.009444981609432872</v>
       </c>
       <c r="D41">
-        <v>-0.009057360212783444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03072550526911341</v>
+      </c>
+      <c r="E41">
+        <v>0.07578865455144111</v>
+      </c>
+      <c r="F41">
+        <v>-0.002911593130247797</v>
+      </c>
+      <c r="G41">
+        <v>0.03052090646859545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04908082421357429</v>
+        <v>0.03371996561612834</v>
       </c>
       <c r="C43">
-        <v>0.03140944597339639</v>
+        <v>0.02318496562293798</v>
       </c>
       <c r="D43">
-        <v>-0.0254924892880652</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.05947081147873967</v>
+      </c>
+      <c r="E43">
+        <v>0.08700750783666489</v>
+      </c>
+      <c r="F43">
+        <v>0.01894477568757892</v>
+      </c>
+      <c r="G43">
+        <v>0.04568965216590138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02083328438833585</v>
+        <v>0.02110705442132017</v>
       </c>
       <c r="C44">
-        <v>0.06784112905373176</v>
+        <v>0.0482645931903755</v>
       </c>
       <c r="D44">
-        <v>-0.00195872216008258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05127230373648008</v>
+      </c>
+      <c r="E44">
+        <v>0.1069036864576648</v>
+      </c>
+      <c r="F44">
+        <v>-0.01438729217193732</v>
+      </c>
+      <c r="G44">
+        <v>0.02534804702034728</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01736180554777646</v>
+        <v>0.01520586493876493</v>
       </c>
       <c r="C46">
-        <v>0.02557498747483358</v>
+        <v>0.02958968312040733</v>
       </c>
       <c r="D46">
-        <v>0.0009964707928193271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03791798301172608</v>
+      </c>
+      <c r="E46">
+        <v>0.08827852164734677</v>
+      </c>
+      <c r="F46">
+        <v>-0.01864803234044669</v>
+      </c>
+      <c r="G46">
+        <v>0.06678921698225818</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09695549799103732</v>
+        <v>0.09637554186452707</v>
       </c>
       <c r="C47">
-        <v>0.06739646389277278</v>
+        <v>0.08051826738411058</v>
       </c>
       <c r="D47">
-        <v>0.03973347145829674</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008408808451025544</v>
+      </c>
+      <c r="E47">
+        <v>0.06944013778534021</v>
+      </c>
+      <c r="F47">
+        <v>0.01822277612998367</v>
+      </c>
+      <c r="G47">
+        <v>0.06432484343379942</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02558990135668385</v>
+        <v>0.02126544931684065</v>
       </c>
       <c r="C48">
-        <v>0.01023326165996807</v>
+        <v>0.01501121125680149</v>
       </c>
       <c r="D48">
-        <v>0.008983868145416456</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.03170438717743906</v>
+      </c>
+      <c r="E48">
+        <v>0.09241285479714964</v>
+      </c>
+      <c r="F48">
+        <v>-0.008676544593568956</v>
+      </c>
+      <c r="G48">
+        <v>0.0471905461957632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08701106642915286</v>
+        <v>0.07438863292230094</v>
       </c>
       <c r="C50">
-        <v>0.08939518143327893</v>
+        <v>0.07682401574562274</v>
       </c>
       <c r="D50">
-        <v>0.03959749358125467</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0106401616336803</v>
+      </c>
+      <c r="E50">
+        <v>0.08640371043370076</v>
+      </c>
+      <c r="F50">
+        <v>0.0564483999588822</v>
+      </c>
+      <c r="G50">
+        <v>0.02992083948376621</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01878276961508655</v>
+        <v>0.01406549654536045</v>
       </c>
       <c r="C51">
-        <v>0.04764344849277984</v>
+        <v>0.02918218637419842</v>
       </c>
       <c r="D51">
-        <v>-0.06478493535136873</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.07963627023132712</v>
+      </c>
+      <c r="E51">
+        <v>0.07181272455542945</v>
+      </c>
+      <c r="F51">
+        <v>-0.01411896435697638</v>
+      </c>
+      <c r="G51">
+        <v>0.01391402361583058</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08862605566636203</v>
+        <v>0.1013623306260968</v>
       </c>
       <c r="C53">
-        <v>0.07811544981317718</v>
+        <v>0.08659791775241496</v>
       </c>
       <c r="D53">
-        <v>0.0614249994673339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04672849338951828</v>
+      </c>
+      <c r="E53">
+        <v>0.08772257837103246</v>
+      </c>
+      <c r="F53">
+        <v>0.0144794065770849</v>
+      </c>
+      <c r="G53">
+        <v>0.07123437786773515</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.04252623291944574</v>
+        <v>0.03300456326539428</v>
       </c>
       <c r="C54">
-        <v>0.03221879339979081</v>
+        <v>0.03124440922195522</v>
       </c>
       <c r="D54">
-        <v>-0.01885426668847312</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.05125401083902957</v>
+      </c>
+      <c r="E54">
+        <v>0.08151659821077287</v>
+      </c>
+      <c r="F54">
+        <v>-0.00829655511324528</v>
+      </c>
+      <c r="G54">
+        <v>0.05483467347257164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08568418708965196</v>
+        <v>0.09348549980985753</v>
       </c>
       <c r="C55">
-        <v>0.05301031822609435</v>
+        <v>0.06740905960964801</v>
       </c>
       <c r="D55">
-        <v>0.06054474902086038</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04794961909040779</v>
+      </c>
+      <c r="E55">
+        <v>0.05788735253414765</v>
+      </c>
+      <c r="F55">
+        <v>0.02509734678808309</v>
+      </c>
+      <c r="G55">
+        <v>0.03234963045803509</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1499197024388826</v>
+        <v>0.1533934238238224</v>
       </c>
       <c r="C56">
-        <v>0.08445243657443291</v>
+        <v>0.1033121531931217</v>
       </c>
       <c r="D56">
-        <v>0.06993267574457333</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05553092092644281</v>
+      </c>
+      <c r="E56">
+        <v>0.04721074788402892</v>
+      </c>
+      <c r="F56">
+        <v>0.0203533942188039</v>
+      </c>
+      <c r="G56">
+        <v>0.04629385639169641</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04859818106262638</v>
+        <v>0.0372524492875274</v>
       </c>
       <c r="C58">
-        <v>0.005723920103820619</v>
+        <v>0.01481874859592086</v>
       </c>
       <c r="D58">
-        <v>-0.2062270187291207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2850560066984765</v>
+      </c>
+      <c r="E58">
+        <v>0.3528318964295926</v>
+      </c>
+      <c r="F58">
+        <v>0.1593192870085121</v>
+      </c>
+      <c r="G58">
+        <v>-0.5853109935342296</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1255284090603044</v>
+        <v>0.1440328298360118</v>
       </c>
       <c r="C59">
-        <v>-0.2058747326276849</v>
+        <v>-0.1934146988522724</v>
       </c>
       <c r="D59">
-        <v>-0.03898850456965079</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03891824174719535</v>
+      </c>
+      <c r="E59">
+        <v>0.02913132067981973</v>
+      </c>
+      <c r="F59">
+        <v>-0.02700496049071759</v>
+      </c>
+      <c r="G59">
+        <v>-0.01819040525340355</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2839978078365448</v>
+        <v>0.2601481037969993</v>
       </c>
       <c r="C60">
-        <v>0.1075165344907461</v>
+        <v>0.09717307984491974</v>
       </c>
       <c r="D60">
-        <v>-0.2492807450226212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2255763165327954</v>
+      </c>
+      <c r="E60">
+        <v>-0.2705581941998002</v>
+      </c>
+      <c r="F60">
+        <v>0.1011243591818115</v>
+      </c>
+      <c r="G60">
+        <v>0.01594128987062459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.05241394414435609</v>
+        <v>0.04740828877160348</v>
       </c>
       <c r="C61">
-        <v>0.05412183578104995</v>
+        <v>0.05541868958553262</v>
       </c>
       <c r="D61">
-        <v>-0.03660276440793025</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.06199929659644901</v>
+      </c>
+      <c r="E61">
+        <v>0.06173856202503076</v>
+      </c>
+      <c r="F61">
+        <v>-0.0006007663605695944</v>
+      </c>
+      <c r="G61">
+        <v>0.05918597295569265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01969633645672264</v>
+        <v>0.01900962504355158</v>
       </c>
       <c r="C63">
-        <v>0.03318415890188959</v>
+        <v>0.03055405543067097</v>
       </c>
       <c r="D63">
-        <v>0.00691665987847649</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.03660812887841168</v>
+      </c>
+      <c r="E63">
+        <v>0.08348309921975336</v>
+      </c>
+      <c r="F63">
+        <v>0.01898979623297411</v>
+      </c>
+      <c r="G63">
+        <v>0.02495670542497374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05497196839724153</v>
+        <v>0.05872966518457434</v>
       </c>
       <c r="C64">
-        <v>0.04528689041797407</v>
+        <v>0.05901799522075841</v>
       </c>
       <c r="D64">
-        <v>-0.02047061585417415</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02579871729441043</v>
+      </c>
+      <c r="E64">
+        <v>0.05425277049145609</v>
+      </c>
+      <c r="F64">
+        <v>-0.01259843829036455</v>
+      </c>
+      <c r="G64">
+        <v>0.07847417746153638</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07645539008776611</v>
+        <v>0.06343532042584586</v>
       </c>
       <c r="C65">
-        <v>0.02696924864991855</v>
+        <v>0.02595421124753722</v>
       </c>
       <c r="D65">
-        <v>-0.05794385819199407</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.09773392504158272</v>
+      </c>
+      <c r="E65">
+        <v>0.06165530571321065</v>
+      </c>
+      <c r="F65">
+        <v>0.03035895344571655</v>
+      </c>
+      <c r="G65">
+        <v>-0.04694625957232257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06461673904142014</v>
+        <v>0.05696036719279423</v>
       </c>
       <c r="C66">
-        <v>0.07727465471259073</v>
+        <v>0.07595956828328897</v>
       </c>
       <c r="D66">
-        <v>-0.05841479686618364</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09764044545510661</v>
+      </c>
+      <c r="E66">
+        <v>0.07590971290113629</v>
+      </c>
+      <c r="F66">
+        <v>-0.0005974051236523209</v>
+      </c>
+      <c r="G66">
+        <v>0.03950026486721239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05380872949820709</v>
+        <v>0.044605825499636</v>
       </c>
       <c r="C67">
-        <v>0.03031303487056711</v>
+        <v>0.0283946635015519</v>
       </c>
       <c r="D67">
-        <v>0.01518941322388549</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0145019530836602</v>
+      </c>
+      <c r="E67">
+        <v>0.03580635931006897</v>
+      </c>
+      <c r="F67">
+        <v>0.003121927082458601</v>
+      </c>
+      <c r="G67">
+        <v>0.003120949160211044</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1307820542031476</v>
+        <v>0.1517317195667306</v>
       </c>
       <c r="C68">
-        <v>-0.2831093060732336</v>
+        <v>-0.242121248322769</v>
       </c>
       <c r="D68">
-        <v>0.004577467455228554</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.00333004328318207</v>
+      </c>
+      <c r="E68">
+        <v>0.04968646560442541</v>
+      </c>
+      <c r="F68">
+        <v>0.007810693640042437</v>
+      </c>
+      <c r="G68">
+        <v>-0.007432779879941183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09715024046334635</v>
+        <v>0.09170332353584611</v>
       </c>
       <c r="C69">
-        <v>0.07678232796662478</v>
+        <v>0.09035020004536119</v>
       </c>
       <c r="D69">
-        <v>0.03452897767756735</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.005029800916242991</v>
+      </c>
+      <c r="E69">
+        <v>0.06939172542248492</v>
+      </c>
+      <c r="F69">
+        <v>-0.007652625831965128</v>
+      </c>
+      <c r="G69">
+        <v>0.07530068860342364</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1165251695147882</v>
+        <v>0.144651723181253</v>
       </c>
       <c r="C71">
-        <v>-0.2617950034571458</v>
+        <v>-0.2447677371885555</v>
       </c>
       <c r="D71">
-        <v>-0.01874097180107007</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0142957074867232</v>
+      </c>
+      <c r="E71">
+        <v>0.07129780751107247</v>
+      </c>
+      <c r="F71">
+        <v>0.0242079586271662</v>
+      </c>
+      <c r="G71">
+        <v>0.04717571989746058</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1030882499711591</v>
+        <v>0.1072793081894043</v>
       </c>
       <c r="C72">
-        <v>0.05030710448847077</v>
+        <v>0.05023512399357284</v>
       </c>
       <c r="D72">
-        <v>-0.02588900460871155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.05904614183524712</v>
+      </c>
+      <c r="E72">
+        <v>0.03779177392053994</v>
+      </c>
+      <c r="F72">
+        <v>0.03397908961398578</v>
+      </c>
+      <c r="G72">
+        <v>0.06096797790533179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.356559605509052</v>
+        <v>0.3089968574242873</v>
       </c>
       <c r="C73">
-        <v>0.07080176010081123</v>
+        <v>0.07414599402235551</v>
       </c>
       <c r="D73">
-        <v>-0.5326582209885924</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4424285271699626</v>
+      </c>
+      <c r="E73">
+        <v>-0.5406258821487073</v>
+      </c>
+      <c r="F73">
+        <v>0.1944114644371895</v>
+      </c>
+      <c r="G73">
+        <v>-0.05289234242967064</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1075689271132425</v>
+        <v>0.1116408719759561</v>
       </c>
       <c r="C74">
-        <v>0.09039411104467843</v>
+        <v>0.08975530068441999</v>
       </c>
       <c r="D74">
-        <v>0.0485804576719546</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04089677626380537</v>
+      </c>
+      <c r="E74">
+        <v>0.06521861042262912</v>
+      </c>
+      <c r="F74">
+        <v>0.03299362336449016</v>
+      </c>
+      <c r="G74">
+        <v>0.03414460335722109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2528458134481066</v>
+        <v>0.2559750117559606</v>
       </c>
       <c r="C75">
-        <v>0.08978907969699328</v>
+        <v>0.1236401902656363</v>
       </c>
       <c r="D75">
-        <v>0.1702642421557539</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1640132001425255</v>
+      </c>
+      <c r="E75">
+        <v>0.02504241680285669</v>
+      </c>
+      <c r="F75">
+        <v>0.01574238422498704</v>
+      </c>
+      <c r="G75">
+        <v>-0.001714896926993137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1197970359208373</v>
+        <v>0.1317594314714101</v>
       </c>
       <c r="C76">
-        <v>0.07867977192498128</v>
+        <v>0.09032303428831459</v>
       </c>
       <c r="D76">
-        <v>0.08653251342804735</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07168090322226552</v>
+      </c>
+      <c r="E76">
+        <v>0.09321949042196888</v>
+      </c>
+      <c r="F76">
+        <v>0.001589998894753978</v>
+      </c>
+      <c r="G76">
+        <v>0.04221819361526308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08630383920452567</v>
+        <v>0.0692079271912177</v>
       </c>
       <c r="C77">
-        <v>0.03619952053594894</v>
+        <v>0.05912375927287936</v>
       </c>
       <c r="D77">
-        <v>-0.05765093827360403</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.08737726044832267</v>
+      </c>
+      <c r="E77">
+        <v>0.1148858494359202</v>
+      </c>
+      <c r="F77">
+        <v>-0.2133130900047112</v>
+      </c>
+      <c r="G77">
+        <v>-0.1055007664218455</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04738600625656271</v>
+        <v>0.04818551357798111</v>
       </c>
       <c r="C78">
-        <v>0.04547080430503899</v>
+        <v>0.05358365834441545</v>
       </c>
       <c r="D78">
-        <v>-0.05225224815002073</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08798668167231011</v>
+      </c>
+      <c r="E78">
+        <v>0.07687331953602455</v>
+      </c>
+      <c r="F78">
+        <v>-0.001060190061191471</v>
+      </c>
+      <c r="G78">
+        <v>0.05337728822985675</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.001469947512077604</v>
+        <v>0.03712437123239716</v>
       </c>
       <c r="C79">
-        <v>0.0004701196948425406</v>
+        <v>0.05098292552424415</v>
       </c>
       <c r="D79">
-        <v>-0.005133552675521082</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.08751707601271427</v>
+      </c>
+      <c r="E79">
+        <v>0.08682701209796378</v>
+      </c>
+      <c r="F79">
+        <v>0.03198119203618965</v>
+      </c>
+      <c r="G79">
+        <v>0.1886208551509105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03753561383185403</v>
+        <v>0.02992520841581528</v>
       </c>
       <c r="C80">
-        <v>0.04280381447218504</v>
+        <v>0.04658010167587845</v>
       </c>
       <c r="D80">
-        <v>-0.04096790105626297</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04714022839910936</v>
+      </c>
+      <c r="E80">
+        <v>0.01635897294669612</v>
+      </c>
+      <c r="F80">
+        <v>-0.0412793304992821</v>
+      </c>
+      <c r="G80">
+        <v>-0.005885564208455672</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.149435759023887</v>
+        <v>0.1443193935500126</v>
       </c>
       <c r="C81">
-        <v>0.06778476637852472</v>
+        <v>0.09025634384109937</v>
       </c>
       <c r="D81">
-        <v>0.141925772694203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1252576619733342</v>
+      </c>
+      <c r="E81">
+        <v>0.06901133171715469</v>
+      </c>
+      <c r="F81">
+        <v>0.001864290968573344</v>
+      </c>
+      <c r="G81">
+        <v>0.01571929769335989</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2234109288335426</v>
+        <v>0.2414519511576474</v>
       </c>
       <c r="C82">
-        <v>0.09489260717370987</v>
+        <v>0.1634300981492933</v>
       </c>
       <c r="D82">
-        <v>0.1841314869925429</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2439703087778793</v>
+      </c>
+      <c r="E82">
+        <v>-0.06184861560635712</v>
+      </c>
+      <c r="F82">
+        <v>-0.06210648572518168</v>
+      </c>
+      <c r="G82">
+        <v>0.3501582942629222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.04241128113149521</v>
+        <v>0.02864887017654768</v>
       </c>
       <c r="C83">
-        <v>0.0399676771886066</v>
+        <v>0.04825630065234864</v>
       </c>
       <c r="D83">
-        <v>-0.05307605654638156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03868832034941911</v>
+      </c>
+      <c r="E83">
+        <v>0.02958049658231439</v>
+      </c>
+      <c r="F83">
+        <v>-0.02420734441682846</v>
+      </c>
+      <c r="G83">
+        <v>-0.01010875726799793</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001321060144143824</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.001849666481153017</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001596284956737859</v>
+      </c>
+      <c r="E84">
+        <v>0.007671196776362837</v>
+      </c>
+      <c r="F84">
+        <v>0.003103272148740043</v>
+      </c>
+      <c r="G84">
+        <v>-0.006712594259137205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2037038881006616</v>
+        <v>0.1917175179346225</v>
       </c>
       <c r="C85">
-        <v>0.1021795157078761</v>
+        <v>0.1139230119360232</v>
       </c>
       <c r="D85">
-        <v>0.1841810659336808</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1466551008436683</v>
+      </c>
+      <c r="E85">
+        <v>0.006890522178310943</v>
+      </c>
+      <c r="F85">
+        <v>0.09110850369888518</v>
+      </c>
+      <c r="G85">
+        <v>0.04219578174478619</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01337496416698119</v>
+        <v>0.0167395020705059</v>
       </c>
       <c r="C86">
-        <v>0.02685289992270882</v>
+        <v>0.01599505684678366</v>
       </c>
       <c r="D86">
-        <v>-0.05870040511375783</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.09121926776043651</v>
+      </c>
+      <c r="E86">
+        <v>0.08915767418101832</v>
+      </c>
+      <c r="F86">
+        <v>-0.01513971840834711</v>
+      </c>
+      <c r="G86">
+        <v>0.05985248256423827</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03430811048073362</v>
+        <v>0.03359918820437025</v>
       </c>
       <c r="C87">
-        <v>-0.001911319763678889</v>
+        <v>0.01292618736487384</v>
       </c>
       <c r="D87">
-        <v>-0.07557372540687592</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1074602150528779</v>
+      </c>
+      <c r="E87">
+        <v>0.1331103120733573</v>
+      </c>
+      <c r="F87">
+        <v>-0.05003736518275965</v>
+      </c>
+      <c r="G87">
+        <v>-0.02966602507498182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.114913390322123</v>
+        <v>0.09696352200238957</v>
       </c>
       <c r="C88">
-        <v>0.08636534062606364</v>
+        <v>0.06939870200046812</v>
       </c>
       <c r="D88">
-        <v>0.005200098727934091</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02403043117331444</v>
+      </c>
+      <c r="E88">
+        <v>0.04421295229267677</v>
+      </c>
+      <c r="F88">
+        <v>-0.0168758788810613</v>
+      </c>
+      <c r="G88">
+        <v>0.04014918500561428</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1870559621730362</v>
+        <v>0.2198016859469053</v>
       </c>
       <c r="C89">
-        <v>-0.3751650063864324</v>
+        <v>-0.3805260399180533</v>
       </c>
       <c r="D89">
-        <v>0.0197975025549874</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.002122229889691615</v>
+      </c>
+      <c r="E89">
+        <v>0.07136865720849926</v>
+      </c>
+      <c r="F89">
+        <v>-0.06727462783807409</v>
+      </c>
+      <c r="G89">
+        <v>0.02254491007800094</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1790448502791859</v>
+        <v>0.2001327378395826</v>
       </c>
       <c r="C90">
-        <v>-0.3342899413497928</v>
+        <v>-0.3097448816610538</v>
       </c>
       <c r="D90">
-        <v>0.0263689466141181</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.005468107797630496</v>
+      </c>
+      <c r="E90">
+        <v>0.05556904373066376</v>
+      </c>
+      <c r="F90">
+        <v>-0.004525147262847907</v>
+      </c>
+      <c r="G90">
+        <v>-0.01639551925643453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1944313599163365</v>
+        <v>0.1890351930138217</v>
       </c>
       <c r="C91">
-        <v>0.1229558586878024</v>
+        <v>0.1414684088957091</v>
       </c>
       <c r="D91">
-        <v>0.14656919562866</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1295667579077566</v>
+      </c>
+      <c r="E91">
+        <v>0.05499065748006783</v>
+      </c>
+      <c r="F91">
+        <v>0.000312960426743717</v>
+      </c>
+      <c r="G91">
+        <v>0.01426391929528316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.15974054344382</v>
+        <v>0.1796999907653216</v>
       </c>
       <c r="C92">
-        <v>-0.2883759733008679</v>
+        <v>-0.2962214369163625</v>
       </c>
       <c r="D92">
-        <v>0.01294100570998635</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.001729390082035363</v>
+      </c>
+      <c r="E92">
+        <v>0.08306470474941245</v>
+      </c>
+      <c r="F92">
+        <v>-0.02668104766141232</v>
+      </c>
+      <c r="G92">
+        <v>0.04439607128143241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1940130831481794</v>
+        <v>0.2152500863455072</v>
       </c>
       <c r="C93">
-        <v>-0.344030665044307</v>
+        <v>-0.3199358826355399</v>
       </c>
       <c r="D93">
-        <v>0.03423715872750434</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01562413956098178</v>
+      </c>
+      <c r="E93">
+        <v>0.03306441888813733</v>
+      </c>
+      <c r="F93">
+        <v>0.02251157757577532</v>
+      </c>
+      <c r="G93">
+        <v>0.04367073485551637</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3579039728961393</v>
+        <v>0.3485731652622257</v>
       </c>
       <c r="C94">
-        <v>0.1231036258355781</v>
+        <v>0.1743625949539448</v>
       </c>
       <c r="D94">
-        <v>0.4667531193179561</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4322990592498203</v>
+      </c>
+      <c r="E94">
+        <v>-0.05812668332767525</v>
+      </c>
+      <c r="F94">
+        <v>-0.1068632259861038</v>
+      </c>
+      <c r="G94">
+        <v>-0.5784150502588777</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1082607522002275</v>
+        <v>0.08140558178517718</v>
       </c>
       <c r="C95">
-        <v>0.03996778920540497</v>
+        <v>0.05217158189030845</v>
       </c>
       <c r="D95">
-        <v>-0.3066671666105539</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.2270968283847265</v>
+      </c>
+      <c r="E95">
+        <v>-0.1123747187512932</v>
+      </c>
+      <c r="F95">
+        <v>-0.8940835933439919</v>
+      </c>
+      <c r="G95">
+        <v>-0.03761574346893418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.187041563897058</v>
+        <v>0.1839964013700299</v>
       </c>
       <c r="C98">
-        <v>0.03543443804376852</v>
+        <v>0.0513099281255738</v>
       </c>
       <c r="D98">
-        <v>-0.2239165811922386</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2027243914920471</v>
+      </c>
+      <c r="E98">
+        <v>-0.1819843507287907</v>
+      </c>
+      <c r="F98">
+        <v>0.1224338728717519</v>
+      </c>
+      <c r="G98">
+        <v>0.01947718158925936</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01195173526443877</v>
+        <v>0.008852172761113893</v>
       </c>
       <c r="C101">
-        <v>0.02765912895522173</v>
+        <v>0.02638342770768116</v>
       </c>
       <c r="D101">
-        <v>-0.003965972459294326</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.04181938032116252</v>
+      </c>
+      <c r="E101">
+        <v>0.08000643094576419</v>
+      </c>
+      <c r="F101">
+        <v>-0.005820140204429504</v>
+      </c>
+      <c r="G101">
+        <v>0.05367131656443118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1199034307599871</v>
+        <v>0.1220433753097598</v>
       </c>
       <c r="C102">
-        <v>0.06558431435736509</v>
+        <v>0.09963112052725209</v>
       </c>
       <c r="D102">
-        <v>0.05826297723123438</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06200740505696235</v>
+      </c>
+      <c r="E102">
+        <v>-0.0008330609526932772</v>
+      </c>
+      <c r="F102">
+        <v>-0.02791690793843439</v>
+      </c>
+      <c r="G102">
+        <v>0.05209705773590456</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
